--- a/src/main/webapp/WEB-INF/books/report/Travel Reservation Form.xlsx
+++ b/src/main/webapp/WEB-INF/books/report/Travel Reservation Form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawk/Documents/workspace/KEIKAI-SPACE/dev-ref/src/main/webapp/WEB-INF/book/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawk/Documents/workspace/KEIKAI-SPACE/dev-ref/src/main/webapp/WEB-INF/books/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E88273A-3092-274E-9FFC-974469EBFD7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F86ECC-38D0-7945-B147-AB6D0D848461}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{576F5239-AC1C-3641-A289-08754DDE9639}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>From</t>
   </si>
@@ -88,12 +88,6 @@
   </si>
   <si>
     <t>KK Inc. Travel Reservation</t>
-  </si>
-  <si>
-    <t>Check here if hotel is the same dates/cities as above.</t>
-  </si>
-  <si>
-    <t>Check here if you do not need a hotel</t>
   </si>
 </sst>
 </file>
@@ -222,153 +216,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>101600</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -667,11 +514,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4344196-FC32-1C4B-9DA2-2FE4D3A7A0CC}">
-  <dimension ref="B2:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4344196-FC32-1C4B-9DA2-2FE4D3A7A0CC}">
+  <dimension ref="B2:Q36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1013,109 +860,91 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" s="1" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="3"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="3"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="G33" s="3"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="Q34" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="Q37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="Q39" t="s">
+      <c r="Q36" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1127,57 +956,5 @@
     <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId3" name="Check Box 1">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>190500</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>101600</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId4" name="Check Box 2">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>190500</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
 </worksheet>
 </file>